--- a/frame.xlsx
+++ b/frame.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamac\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eyarbasi3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>FRAME</t>
   </si>
@@ -53,9 +53,6 @@
     <t>10x10</t>
   </si>
   <si>
-    <t>(150,200,300 are also available)</t>
-  </si>
-  <si>
     <t>Landing</t>
   </si>
   <si>
@@ -68,7 +65,19 @@
     <t>g</t>
   </si>
   <si>
-    <t>19.3,25.2,37 g each component weight</t>
+    <t>Interference</t>
+  </si>
+  <si>
+    <t>Two arms</t>
+  </si>
+  <si>
+    <t>end of arm and motor center</t>
+  </si>
+  <si>
+    <t>Arm inside the main body</t>
+  </si>
+  <si>
+    <t>Distance between motor center and middle point</t>
   </si>
 </sst>
 </file>
@@ -84,15 +93,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,12 +127,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,23 +262,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -251,23 +297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -420,168 +449,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:O13"/>
+  <dimension ref="A4:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>250</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>150</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>200</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>300</v>
       </c>
-      <c r="N5" t="s">
+      <c r="L5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="1">
+        <v>150</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="9">
         <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N6" t="s">
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1">
+        <v>28</v>
+      </c>
+      <c r="H8" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>25.2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <f>$C$17/2+G5+$C$16</f>
+        <v>279.87</v>
+      </c>
+      <c r="H11" s="2">
+        <f>$C$17/2+H5+$C$16</f>
+        <v>179.87</v>
+      </c>
+      <c r="I11" s="2">
+        <f>$C$17/2+I5+$C$16</f>
+        <v>229.87</v>
+      </c>
+      <c r="J11" s="2">
+        <f>$C$17/2+J5+$C$16</f>
+        <v>329.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:14" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4">
+        <v>13</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7">
-        <v>9</v>
-      </c>
-      <c r="I7">
-        <v>9</v>
-      </c>
-      <c r="J7">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="4">
+        <v>33.74</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8">
-        <v>28</v>
-      </c>
-      <c r="H8">
-        <v>19.3</v>
-      </c>
-      <c r="I8">
-        <v>25.2</v>
-      </c>
-      <c r="J8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11">
-        <v>150</v>
-      </c>
-      <c r="H11" t="s">
+    <row r="18" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>19.3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A14:D15"/>
+    <mergeCell ref="B4:D4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>